--- a/experimental design.xlsx
+++ b/experimental design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Attention_discounting\attention_discount_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\attention\attention_discount_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4506E7-03BD-47AF-BCA9-7F924286A652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99B0FFE-87CF-4D0C-8BD7-808BE8707B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>X increases by rows</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +152,15 @@
   <si>
     <t>18 months</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immed_Rw_Increase</t>
+  </si>
+  <si>
+    <t>Delayed_Rw_Increase</t>
+  </si>
+  <si>
+    <t>3 months</t>
   </si>
 </sst>
 </file>
@@ -164,13 +171,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -196,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,9 +224,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -582,14 +592,14 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -619,7 +629,7 @@
       </c>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5">
@@ -631,7 +641,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2">
@@ -641,11 +651,11 @@
         <v>50</v>
       </c>
       <c r="J2" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="5">
         <v>100</v>
       </c>
@@ -655,7 +665,7 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="2">
         <v>100</v>
       </c>
@@ -663,11 +673,11 @@
         <v>70</v>
       </c>
       <c r="J3" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="5">
         <v>100</v>
       </c>
@@ -677,7 +687,7 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="2">
         <v>100</v>
       </c>
@@ -685,11 +695,11 @@
         <v>90</v>
       </c>
       <c r="J4" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="5">
         <v>100</v>
       </c>
@@ -699,19 +709,19 @@
       <c r="E5" s="2">
         <v>9</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I5" s="2">
         <v>50</v>
       </c>
       <c r="J5" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="5">
         <v>100</v>
       </c>
@@ -721,19 +731,19 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I6" s="2">
         <v>70</v>
       </c>
       <c r="J6" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="5">
         <v>100</v>
       </c>
@@ -743,21 +753,21 @@
       <c r="E7" s="2">
         <v>18</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I7" s="2">
         <v>90</v>
       </c>
       <c r="J7" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2">
         <v>50</v>
@@ -767,9 +777,9 @@
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2">
         <v>70</v>
@@ -779,9 +789,9 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2">
         <v>90</v>
@@ -791,9 +801,9 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2">
         <v>70</v>
@@ -803,9 +813,9 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2">
         <v>90</v>
@@ -815,9 +825,9 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D13" s="2">
         <v>90</v>
@@ -859,15 +869,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FF4054-4FAF-4B84-8AF3-2CD8286AB06B}">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D13"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -880,8 +898,20 @@
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5">
+        <v>100</v>
+      </c>
+      <c r="I2" s="7">
+        <v>50</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -894,8 +924,20 @@
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5">
+        <v>100</v>
+      </c>
+      <c r="I3" s="7">
+        <v>70</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -908,8 +950,20 @@
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5">
+        <v>100</v>
+      </c>
+      <c r="I4" s="7">
+        <v>90</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -922,8 +976,20 @@
       <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5">
+        <v>120</v>
+      </c>
+      <c r="I5" s="7">
+        <v>50</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -936,8 +1002,20 @@
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5">
+        <v>120</v>
+      </c>
+      <c r="I6" s="7">
+        <v>70</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -950,13 +1028,25 @@
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5">
+        <v>120</v>
+      </c>
+      <c r="I7" s="7">
+        <v>90</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2">
         <v>50</v>
@@ -965,12 +1055,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2">
         <v>70</v>
@@ -979,12 +1069,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2">
         <v>90</v>
@@ -993,12 +1083,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2">
         <v>70</v>
@@ -1007,12 +1097,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2">
         <v>90</v>
@@ -1021,12 +1111,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2">
         <v>90</v>
@@ -1050,10 +1140,10 @@
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1064,7 +1154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57.6">
+    <row r="2" spans="1:2" ht="90">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57.6">
+    <row r="3" spans="1:2" ht="75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1080,7 +1170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="86.4">
+    <row r="4" spans="1:2" ht="120">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="57.6">
+    <row r="5" spans="1:2" ht="90">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" t="s">
         <v>10</v>
       </c>
